--- a/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_40.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_14_percent_water_40.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>90.58624444123927</v>
+        <v>90.00111838429336</v>
       </c>
       <c r="D2" t="n">
-        <v>3.34417278253051</v>
+        <v>3.441639731502729</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.30990540792253</v>
+        <v>88.73175588290816</v>
       </c>
       <c r="D3" t="n">
-        <v>3.446960157614445</v>
+        <v>3.124533117877184</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.47890261982332</v>
+        <v>87.71155677797249</v>
       </c>
       <c r="D4" t="n">
-        <v>3.219690158646833</v>
+        <v>3.429326817487386</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.3796155934749</v>
+        <v>85.97984357729266</v>
       </c>
       <c r="D5" t="n">
-        <v>3.314015669867342</v>
+        <v>3.733150097628119</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>86.36534303965314</v>
+        <v>85.84187907529615</v>
       </c>
       <c r="D6" t="n">
-        <v>3.280803186858375</v>
+        <v>3.311364064247793</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>85.22695586853771</v>
+        <v>84.99730713771844</v>
       </c>
       <c r="D7" t="n">
-        <v>3.348712876856669</v>
+        <v>3.279614280493367</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.81266823418457</v>
+        <v>84.01372962351434</v>
       </c>
       <c r="D8" t="n">
-        <v>3.397989956670429</v>
+        <v>3.338955848920024</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>82.78782093266526</v>
+        <v>82.86838579895839</v>
       </c>
       <c r="D9" t="n">
-        <v>3.284958301340075</v>
+        <v>3.488071925084566</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>81.80769580069989</v>
+        <v>81.91566775603182</v>
       </c>
       <c r="D10" t="n">
-        <v>3.74911833501326</v>
+        <v>3.455777818946897</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.37571569661755</v>
+        <v>81.17748984342634</v>
       </c>
       <c r="D11" t="n">
-        <v>3.407196169524762</v>
+        <v>3.687183044351157</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>79.72853351769076</v>
+        <v>79.38975523036459</v>
       </c>
       <c r="D12" t="n">
-        <v>3.879663616771677</v>
+        <v>4.047292280197142</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.67105517873959</v>
+        <v>77.97082493485148</v>
       </c>
       <c r="D13" t="n">
-        <v>3.595639054801049</v>
+        <v>3.921207746876025</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.86263840426108</v>
+        <v>77.77229505451015</v>
       </c>
       <c r="D14" t="n">
-        <v>3.534398931564777</v>
+        <v>3.891144842328689</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>76.64377212060366</v>
+        <v>76.94496907871127</v>
       </c>
       <c r="D15" t="n">
-        <v>4.044391094550559</v>
+        <v>4.077461400925515</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>75.10349207467949</v>
+        <v>75.34820859657736</v>
       </c>
       <c r="D16" t="n">
-        <v>3.95707351804913</v>
+        <v>4.424770848060517</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>74.94239359710073</v>
+        <v>74.23866654273672</v>
       </c>
       <c r="D17" t="n">
-        <v>3.710665803745982</v>
+        <v>4.655598394755236</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>73.82927078247745</v>
+        <v>74.14518619020843</v>
       </c>
       <c r="D18" t="n">
-        <v>4.044381550427897</v>
+        <v>3.850405800716306</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.91606104651433</v>
+        <v>72.72093151286637</v>
       </c>
       <c r="D19" t="n">
-        <v>4.203933792324174</v>
+        <v>3.64143005062488</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>72.14398197053602</v>
+        <v>72.10673904456243</v>
       </c>
       <c r="D20" t="n">
-        <v>3.743794964657167</v>
+        <v>4.265754445524749</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.96100840477452</v>
+        <v>70.52101783971823</v>
       </c>
       <c r="D21" t="n">
-        <v>3.800297429642419</v>
+        <v>3.889325973226607</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.67832027200825</v>
+        <v>69.48853285431943</v>
       </c>
       <c r="D22" t="n">
-        <v>3.904795339353701</v>
+        <v>4.143627008024287</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>68.47597916484955</v>
+        <v>69.49903188904044</v>
       </c>
       <c r="D23" t="n">
-        <v>3.907487965387543</v>
+        <v>3.898643448043467</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>67.65548559197769</v>
+        <v>68.01442562663685</v>
       </c>
       <c r="D24" t="n">
-        <v>3.899542893913558</v>
+        <v>3.971033932963398</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.59583862670476</v>
+        <v>65.85188522537899</v>
       </c>
       <c r="D25" t="n">
-        <v>4.736306289395586</v>
+        <v>4.16784004471274</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.37422586626225</v>
+        <v>65.58026732170748</v>
       </c>
       <c r="D26" t="n">
-        <v>3.885337619905191</v>
+        <v>4.500517282473594</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.22569337049403</v>
+        <v>65.40214565726028</v>
       </c>
       <c r="D27" t="n">
-        <v>4.136651010965823</v>
+        <v>4.353078726531837</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>63.70569557309766</v>
+        <v>63.4351389108684</v>
       </c>
       <c r="D28" t="n">
-        <v>4.749786262137975</v>
+        <v>3.943980453056067</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.38569573101523</v>
+        <v>63.32637834143772</v>
       </c>
       <c r="D29" t="n">
-        <v>4.510820180738144</v>
+        <v>3.985524631431017</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.57173690829242</v>
+        <v>61.34257369180894</v>
       </c>
       <c r="D30" t="n">
-        <v>4.249309816159909</v>
+        <v>4.830400026257725</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.65240968136296</v>
+        <v>60.81409015660187</v>
       </c>
       <c r="D31" t="n">
-        <v>4.383353328943366</v>
+        <v>3.903484383393745</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>58.82085700265985</v>
+        <v>59.9542244089378</v>
       </c>
       <c r="D32" t="n">
-        <v>5.325195030765832</v>
+        <v>3.798699864398364</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.46891604254274</v>
+        <v>58.06915791452354</v>
       </c>
       <c r="D33" t="n">
-        <v>4.399267106409234</v>
+        <v>5.039626350059231</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.86497898226671</v>
+        <v>57.99070128110235</v>
       </c>
       <c r="D34" t="n">
-        <v>4.053154119379561</v>
+        <v>5.169615094474523</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.17563585450538</v>
+        <v>56.37969608218233</v>
       </c>
       <c r="D35" t="n">
-        <v>4.096068184276645</v>
+        <v>4.971635275967341</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>55.59299357277666</v>
+        <v>55.02381087412397</v>
       </c>
       <c r="D36" t="n">
-        <v>4.773390305750938</v>
+        <v>4.750440533209281</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.9409401266055</v>
+        <v>54.593082259091</v>
       </c>
       <c r="D37" t="n">
-        <v>4.642814229313182</v>
+        <v>4.277845307582882</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.2682527984885</v>
+        <v>52.84598712817628</v>
       </c>
       <c r="D38" t="n">
-        <v>4.695285526083625</v>
+        <v>5.411360024204854</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>53.00804157264942</v>
+        <v>52.43026927854479</v>
       </c>
       <c r="D39" t="n">
-        <v>5.041699060223073</v>
+        <v>4.709237355435528</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>50.9321538446026</v>
+        <v>52.74419030070744</v>
       </c>
       <c r="D40" t="n">
-        <v>5.254481572403419</v>
+        <v>4.486224654756967</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>50.57658196850744</v>
+        <v>51.04305731282065</v>
       </c>
       <c r="D41" t="n">
-        <v>4.061347527220349</v>
+        <v>5.482493441018146</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.94912050982754</v>
+        <v>50.66682029979721</v>
       </c>
       <c r="D42" t="n">
-        <v>4.754388161995085</v>
+        <v>4.515699634004395</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>48.90125973724785</v>
+        <v>48.45073956731394</v>
       </c>
       <c r="D43" t="n">
-        <v>5.312788433899757</v>
+        <v>4.466464766454997</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>47.00213641835775</v>
+        <v>47.03043435600226</v>
       </c>
       <c r="D44" t="n">
-        <v>5.395715781630941</v>
+        <v>4.753275718426476</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>46.76663192553695</v>
+        <v>47.17226316201918</v>
       </c>
       <c r="D45" t="n">
-        <v>4.632922867549436</v>
+        <v>4.21736054606322</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>45.0989035114624</v>
+        <v>45.73001994707455</v>
       </c>
       <c r="D46" t="n">
-        <v>4.519088517258184</v>
+        <v>5.185814089563083</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>44.42468856694482</v>
+        <v>44.66565633051</v>
       </c>
       <c r="D47" t="n">
-        <v>5.129547398526865</v>
+        <v>5.016414548671062</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>43.95496230367501</v>
+        <v>44.09392490740282</v>
       </c>
       <c r="D48" t="n">
-        <v>5.308937773329403</v>
+        <v>4.744230844777063</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.72509765374122</v>
+        <v>42.89588537187157</v>
       </c>
       <c r="D49" t="n">
-        <v>4.477625604770216</v>
+        <v>4.647676075404479</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>41.32831044592822</v>
+        <v>40.2902366441021</v>
       </c>
       <c r="D50" t="n">
-        <v>5.179830868200853</v>
+        <v>5.168281057450523</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>41.0211651297506</v>
+        <v>41.30753495905378</v>
       </c>
       <c r="D51" t="n">
-        <v>4.954815687400103</v>
+        <v>4.818948364435023</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.53341489093186</v>
+        <v>39.59348930729473</v>
       </c>
       <c r="D52" t="n">
-        <v>5.681357254557449</v>
+        <v>5.196199934458368</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.19919813374587</v>
+        <v>39.58082386135651</v>
       </c>
       <c r="D53" t="n">
-        <v>5.725650563527955</v>
+        <v>4.829220937563242</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>37.49179908067599</v>
+        <v>38.10404676489579</v>
       </c>
       <c r="D54" t="n">
-        <v>4.706872769026369</v>
+        <v>5.368402920723947</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>36.75754060403408</v>
+        <v>35.82830283385324</v>
       </c>
       <c r="D55" t="n">
-        <v>5.547735962814032</v>
+        <v>4.765078734113803</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>35.54880651443059</v>
+        <v>36.33981162481334</v>
       </c>
       <c r="D56" t="n">
-        <v>5.131530806798463</v>
+        <v>4.797629936527804</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>35.71913559118481</v>
+        <v>34.95840879947748</v>
       </c>
       <c r="D57" t="n">
-        <v>5.001276630007353</v>
+        <v>5.35893540656861</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>34.17927725600712</v>
+        <v>33.97176121040626</v>
       </c>
       <c r="D58" t="n">
-        <v>5.101481613052488</v>
+        <v>4.879675737317966</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.7851037351773</v>
+        <v>32.73017686397738</v>
       </c>
       <c r="D59" t="n">
-        <v>5.289865621539427</v>
+        <v>5.325902605148331</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>31.43110570359012</v>
+        <v>32.03195502960833</v>
       </c>
       <c r="D60" t="n">
-        <v>5.573428274776865</v>
+        <v>5.243906728960671</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.40765744182199</v>
+        <v>29.94802419024576</v>
       </c>
       <c r="D61" t="n">
-        <v>4.934067772661025</v>
+        <v>5.804300754319258</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.11472810738033</v>
+        <v>28.97684236518092</v>
       </c>
       <c r="D62" t="n">
-        <v>5.31677729996685</v>
+        <v>5.767594094401658</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>28.82223232864019</v>
+        <v>29.10036378540303</v>
       </c>
       <c r="D63" t="n">
-        <v>4.965050739555418</v>
+        <v>5.804344967084639</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.46435035245434</v>
+        <v>28.10769680963524</v>
       </c>
       <c r="D64" t="n">
-        <v>5.897941036477499</v>
+        <v>4.774047234387483</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.79236567011649</v>
+        <v>26.64244505489597</v>
       </c>
       <c r="D65" t="n">
-        <v>5.023292850818756</v>
+        <v>6.023681180582555</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.71459340821053</v>
+        <v>25.9199630431951</v>
       </c>
       <c r="D66" t="n">
-        <v>5.73728360758416</v>
+        <v>5.151462236254383</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>24.81536186132857</v>
+        <v>24.89500016622793</v>
       </c>
       <c r="D67" t="n">
-        <v>5.494967687571982</v>
+        <v>5.979934076380925</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.56942015447359</v>
+        <v>24.18853417550848</v>
       </c>
       <c r="D68" t="n">
-        <v>5.379162347700975</v>
+        <v>6.169557030763877</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.03783653413534</v>
+        <v>21.98965949270401</v>
       </c>
       <c r="D69" t="n">
-        <v>5.865434567180857</v>
+        <v>5.605700541639779</v>
       </c>
     </row>
   </sheetData>
